--- a/clusters/evasao_evadidos.xlsx
+++ b/clusters/evasao_evadidos.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rayan\Documents\datasciencewithR\clusters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4200"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Evasão_2" sheetId="1" r:id="rId3"/>
+    <sheet name="Evasão_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5138" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5138" uniqueCount="507">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -1529,23 +1537,27 @@
   </si>
   <si>
     <t>Patu</t>
+  </si>
+  <si>
+    <t>Concludente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1554,58 +1566,328 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="24.71"/>
-    <col customWidth="1" min="5" max="5" width="27.14"/>
-    <col customWidth="1" min="6" max="6" width="23.0"/>
-    <col customWidth="1" min="7" max="7" width="34.57"/>
-    <col customWidth="1" min="8" max="8" width="19.0"/>
-    <col customWidth="1" min="11" max="11" width="26.0"/>
-    <col customWidth="1" min="12" max="12" width="27.14"/>
-    <col customWidth="1" min="13" max="13" width="18.86"/>
+    <col min="1" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +1931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1693,7 +1975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1737,7 +2019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1781,7 +2063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1825,7 +2107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -1869,7 +2151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -1913,7 +2195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1957,7 +2239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -2001,7 +2283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -2045,7 +2327,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -2089,7 +2371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -2133,7 +2415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -2177,7 +2459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -2194,7 +2476,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>506</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>38</v>
@@ -2221,7 +2503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2265,7 +2547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>65</v>
       </c>
@@ -2309,7 +2591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>69</v>
       </c>
@@ -2353,7 +2635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -2397,7 +2679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2441,7 +2723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -2485,7 +2767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
@@ -2529,7 +2811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -2573,7 +2855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -2617,7 +2899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>83</v>
       </c>
@@ -2661,7 +2943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
@@ -2705,7 +2987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -2749,7 +3031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
@@ -2793,7 +3075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
@@ -2837,7 +3119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>94</v>
       </c>
@@ -2881,7 +3163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
@@ -2925,7 +3207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
@@ -2969,7 +3251,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>99</v>
       </c>
@@ -3013,7 +3295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>102</v>
       </c>
@@ -3057,7 +3339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>103</v>
       </c>
@@ -3101,7 +3383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>104</v>
       </c>
@@ -3145,7 +3427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>105</v>
       </c>
@@ -3189,7 +3471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
@@ -3233,7 +3515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
@@ -3277,7 +3559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>110</v>
       </c>
@@ -3321,7 +3603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>111</v>
       </c>
@@ -3365,7 +3647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>112</v>
       </c>
@@ -3409,7 +3691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
@@ -3453,7 +3735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>115</v>
       </c>
@@ -3497,7 +3779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>116</v>
       </c>
@@ -3541,7 +3823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>117</v>
       </c>
@@ -3585,7 +3867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
@@ -3629,7 +3911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>120</v>
       </c>
@@ -3673,7 +3955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
@@ -3717,7 +3999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>123</v>
       </c>
@@ -3761,7 +4043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>125</v>
       </c>
@@ -3805,7 +4087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>126</v>
       </c>
@@ -3849,7 +4131,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -3893,7 +4175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>130</v>
       </c>
@@ -3937,7 +4219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
@@ -3981,7 +4263,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
@@ -4025,7 +4307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>134</v>
       </c>
@@ -4069,7 +4351,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>135</v>
       </c>
@@ -4113,7 +4395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>136</v>
       </c>
@@ -4157,7 +4439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
@@ -4201,7 +4483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>138</v>
       </c>
@@ -4245,7 +4527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>139</v>
       </c>
@@ -4289,7 +4571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>143</v>
       </c>
@@ -4333,7 +4615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
@@ -4377,7 +4659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>145</v>
       </c>
@@ -4421,7 +4703,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>146</v>
       </c>
@@ -4465,7 +4747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>147</v>
       </c>
@@ -4509,7 +4791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>148</v>
       </c>
@@ -4553,7 +4835,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
@@ -4597,7 +4879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>150</v>
       </c>
@@ -4641,7 +4923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>151</v>
       </c>
@@ -4685,7 +4967,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>153</v>
       </c>
@@ -4729,7 +5011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>154</v>
       </c>
@@ -4773,7 +5055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>155</v>
       </c>
@@ -4817,7 +5099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>157</v>
       </c>
@@ -4861,7 +5143,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>158</v>
       </c>
@@ -4905,7 +5187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>159</v>
       </c>
@@ -4949,7 +5231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>160</v>
       </c>
@@ -4993,7 +5275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>161</v>
       </c>
@@ -5037,7 +5319,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>162</v>
       </c>
@@ -5081,7 +5363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -5125,7 +5407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>164</v>
       </c>
@@ -5169,7 +5451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>165</v>
       </c>
@@ -5213,7 +5495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>166</v>
       </c>
@@ -5257,7 +5539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>167</v>
       </c>
@@ -5301,7 +5583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -5345,7 +5627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>169</v>
       </c>
@@ -5389,7 +5671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>170</v>
       </c>
@@ -5433,7 +5715,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>171</v>
       </c>
@@ -5477,7 +5759,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>172</v>
       </c>
@@ -5521,7 +5803,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>173</v>
       </c>
@@ -5565,7 +5847,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>174</v>
       </c>
@@ -5609,7 +5891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>175</v>
       </c>
@@ -5653,7 +5935,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>176</v>
       </c>
@@ -5697,7 +5979,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>178</v>
       </c>
@@ -5741,7 +6023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>180</v>
       </c>
@@ -5785,7 +6067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>183</v>
       </c>
@@ -5829,7 +6111,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>184</v>
       </c>
@@ -5873,7 +6155,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>185</v>
       </c>
@@ -5917,7 +6199,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>186</v>
       </c>
@@ -5961,7 +6243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>188</v>
       </c>
@@ -6005,7 +6287,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>189</v>
       </c>
@@ -6049,7 +6331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>190</v>
       </c>
@@ -6093,7 +6375,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>191</v>
       </c>
@@ -6137,7 +6419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>193</v>
       </c>
@@ -6181,7 +6463,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>194</v>
       </c>
@@ -6225,7 +6507,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>195</v>
       </c>
@@ -6269,7 +6551,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>196</v>
       </c>
@@ -6313,7 +6595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>197</v>
       </c>
@@ -6357,7 +6639,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>198</v>
       </c>
@@ -6401,7 +6683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>199</v>
       </c>
@@ -6445,7 +6727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>200</v>
       </c>
@@ -6489,7 +6771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>202</v>
       </c>
@@ -6533,7 +6815,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>203</v>
       </c>
@@ -6577,7 +6859,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>205</v>
       </c>
@@ -6621,7 +6903,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>206</v>
       </c>
@@ -6665,7 +6947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>207</v>
       </c>
@@ -6709,7 +6991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>208</v>
       </c>
@@ -6753,7 +7035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>209</v>
       </c>
@@ -6797,7 +7079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>210</v>
       </c>
@@ -6841,7 +7123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>211</v>
       </c>
@@ -6885,7 +7167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>212</v>
       </c>
@@ -6929,7 +7211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>213</v>
       </c>
@@ -6973,7 +7255,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>214</v>
       </c>
@@ -7017,7 +7299,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>215</v>
       </c>
@@ -7061,7 +7343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>216</v>
       </c>
@@ -7105,7 +7387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>217</v>
       </c>
@@ -7149,7 +7431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>218</v>
       </c>
@@ -7193,7 +7475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>219</v>
       </c>
@@ -7237,7 +7519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>220</v>
       </c>
@@ -7281,7 +7563,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>221</v>
       </c>
@@ -7325,7 +7607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>222</v>
       </c>
@@ -7369,7 +7651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>223</v>
       </c>
@@ -7413,7 +7695,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>224</v>
       </c>
@@ -7457,7 +7739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>225</v>
       </c>
@@ -7501,7 +7783,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>226</v>
       </c>
@@ -7545,7 +7827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>227</v>
       </c>
@@ -7589,7 +7871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>228</v>
       </c>
@@ -7633,7 +7915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>229</v>
       </c>
@@ -7677,7 +7959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>230</v>
       </c>
@@ -7721,7 +8003,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>232</v>
       </c>
@@ -7765,7 +8047,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>233</v>
       </c>
@@ -7809,7 +8091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>234</v>
       </c>
@@ -7853,7 +8135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>235</v>
       </c>
@@ -7897,7 +8179,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>236</v>
       </c>
@@ -7941,7 +8223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>237</v>
       </c>
@@ -7985,7 +8267,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>238</v>
       </c>
@@ -8029,7 +8311,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>239</v>
       </c>
@@ -8073,7 +8355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>240</v>
       </c>
@@ -8117,7 +8399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>242</v>
       </c>
@@ -8161,7 +8443,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>243</v>
       </c>
@@ -8205,7 +8487,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>244</v>
       </c>
@@ -8249,7 +8531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>245</v>
       </c>
@@ -8293,7 +8575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>246</v>
       </c>
@@ -8337,7 +8619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>247</v>
       </c>
@@ -8381,7 +8663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>249</v>
       </c>
@@ -8425,7 +8707,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>251</v>
       </c>
@@ -8469,7 +8751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>252</v>
       </c>
@@ -8513,7 +8795,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>253</v>
       </c>
@@ -8557,7 +8839,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>254</v>
       </c>
@@ -8601,7 +8883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>255</v>
       </c>
@@ -8645,7 +8927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>256</v>
       </c>
@@ -8689,7 +8971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>257</v>
       </c>
@@ -8733,7 +9015,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>259</v>
       </c>
@@ -8777,7 +9059,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>261</v>
       </c>
@@ -8821,7 +9103,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>263</v>
       </c>
@@ -8865,7 +9147,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>265</v>
       </c>
@@ -8909,7 +9191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>266</v>
       </c>
@@ -8953,7 +9235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>268</v>
       </c>
@@ -8997,7 +9279,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>270</v>
       </c>
@@ -9041,7 +9323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>271</v>
       </c>
@@ -9085,7 +9367,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>273</v>
       </c>
@@ -9129,7 +9411,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>274</v>
       </c>
@@ -9173,7 +9455,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>275</v>
       </c>
@@ -9217,7 +9499,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>276</v>
       </c>
@@ -9261,7 +9543,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>277</v>
       </c>
@@ -9305,7 +9587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>278</v>
       </c>
@@ -9349,7 +9631,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>279</v>
       </c>
@@ -9393,7 +9675,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>280</v>
       </c>
@@ -9437,7 +9719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>283</v>
       </c>
@@ -9481,7 +9763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>284</v>
       </c>
@@ -9525,7 +9807,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>285</v>
       </c>
@@ -9569,7 +9851,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>286</v>
       </c>
@@ -9613,7 +9895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>287</v>
       </c>
@@ -9657,7 +9939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>288</v>
       </c>
@@ -9701,7 +9983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>289</v>
       </c>
@@ -9745,7 +10027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>291</v>
       </c>
@@ -9789,7 +10071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>292</v>
       </c>
@@ -9833,7 +10115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>293</v>
       </c>
@@ -9877,7 +10159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>294</v>
       </c>
@@ -9921,7 +10203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>295</v>
       </c>
@@ -9965,7 +10247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>296</v>
       </c>
@@ -10009,7 +10291,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>297</v>
       </c>
@@ -10053,7 +10335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>298</v>
       </c>
@@ -10097,7 +10379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>299</v>
       </c>
@@ -10141,7 +10423,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>300</v>
       </c>
@@ -10185,7 +10467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>301</v>
       </c>
@@ -10229,7 +10511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>302</v>
       </c>
@@ -10273,7 +10555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>303</v>
       </c>
@@ -10317,7 +10599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>304</v>
       </c>
@@ -10361,7 +10643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>305</v>
       </c>
@@ -10405,7 +10687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>306</v>
       </c>
@@ -10449,7 +10731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>307</v>
       </c>
@@ -10493,7 +10775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>308</v>
       </c>
@@ -10537,7 +10819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>309</v>
       </c>
@@ -10581,7 +10863,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>310</v>
       </c>
@@ -10625,7 +10907,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>311</v>
       </c>
@@ -10669,7 +10951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>313</v>
       </c>
@@ -10713,7 +10995,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>315</v>
       </c>
@@ -10757,7 +11039,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>316</v>
       </c>
@@ -10801,7 +11083,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>317</v>
       </c>
@@ -10845,7 +11127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>319</v>
       </c>
@@ -10889,7 +11171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>321</v>
       </c>
@@ -10933,7 +11215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>322</v>
       </c>
@@ -10977,7 +11259,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>323</v>
       </c>
@@ -11021,7 +11303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>324</v>
       </c>
@@ -11065,7 +11347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>325</v>
       </c>
@@ -11109,7 +11391,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>327</v>
       </c>
@@ -11153,7 +11435,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>330</v>
       </c>
@@ -11197,7 +11479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>331</v>
       </c>
@@ -11241,7 +11523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>332</v>
       </c>
@@ -11285,7 +11567,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>333</v>
       </c>
@@ -11329,7 +11611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>334</v>
       </c>
@@ -11373,7 +11655,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>336</v>
       </c>
@@ -11417,7 +11699,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>337</v>
       </c>
@@ -11461,7 +11743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>338</v>
       </c>
@@ -11505,7 +11787,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>339</v>
       </c>
@@ -11549,7 +11831,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>340</v>
       </c>
@@ -11593,7 +11875,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>341</v>
       </c>
@@ -11637,7 +11919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>342</v>
       </c>
@@ -11681,7 +11963,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>343</v>
       </c>
@@ -11725,7 +12007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>344</v>
       </c>
@@ -11769,7 +12051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>345</v>
       </c>
@@ -11813,7 +12095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>346</v>
       </c>
@@ -11857,7 +12139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>347</v>
       </c>
@@ -11901,7 +12183,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>348</v>
       </c>
@@ -11945,7 +12227,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>349</v>
       </c>
@@ -11989,7 +12271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>350</v>
       </c>
@@ -12033,7 +12315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>351</v>
       </c>
@@ -12077,7 +12359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>353</v>
       </c>
@@ -12121,7 +12403,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>354</v>
       </c>
@@ -12165,7 +12447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>356</v>
       </c>
@@ -12209,7 +12491,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>357</v>
       </c>
@@ -12253,7 +12535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>358</v>
       </c>
@@ -12297,7 +12579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>359</v>
       </c>
@@ -12341,7 +12623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>360</v>
       </c>
@@ -12385,7 +12667,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>361</v>
       </c>
@@ -12429,7 +12711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>362</v>
       </c>
@@ -12473,7 +12755,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>363</v>
       </c>
@@ -12517,7 +12799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>364</v>
       </c>
@@ -12561,7 +12843,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>365</v>
       </c>
@@ -12605,7 +12887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>367</v>
       </c>
@@ -12649,7 +12931,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>368</v>
       </c>
@@ -12693,7 +12975,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>369</v>
       </c>
@@ -12737,7 +13019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>370</v>
       </c>
@@ -12781,7 +13063,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>371</v>
       </c>
@@ -12825,7 +13107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>372</v>
       </c>
@@ -12869,7 +13151,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>373</v>
       </c>
@@ -12913,7 +13195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>374</v>
       </c>
@@ -12957,7 +13239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>376</v>
       </c>
@@ -13001,7 +13283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>377</v>
       </c>
@@ -13045,7 +13327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>378</v>
       </c>
@@ -13089,7 +13371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>379</v>
       </c>
@@ -13133,7 +13415,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>380</v>
       </c>
@@ -13177,7 +13459,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>381</v>
       </c>
@@ -13221,7 +13503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>382</v>
       </c>
@@ -13265,7 +13547,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>385</v>
       </c>
@@ -13309,7 +13591,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>386</v>
       </c>
@@ -13353,7 +13635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>387</v>
       </c>
@@ -13397,7 +13679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>388</v>
       </c>
@@ -13441,7 +13723,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>389</v>
       </c>
@@ -13485,7 +13767,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>390</v>
       </c>
@@ -13529,7 +13811,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>392</v>
       </c>
@@ -13573,7 +13855,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>393</v>
       </c>
@@ -13617,7 +13899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>394</v>
       </c>
@@ -13661,7 +13943,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>396</v>
       </c>
@@ -13705,7 +13987,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>397</v>
       </c>
@@ -13749,7 +14031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>398</v>
       </c>
@@ -13793,7 +14075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>399</v>
       </c>
@@ -13837,7 +14119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>400</v>
       </c>
@@ -13881,7 +14163,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>403</v>
       </c>
@@ -13925,7 +14207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>404</v>
       </c>
@@ -13969,7 +14251,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>405</v>
       </c>
@@ -14013,7 +14295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>406</v>
       </c>
@@ -14057,7 +14339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>407</v>
       </c>
@@ -14101,7 +14383,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>408</v>
       </c>
@@ -14145,7 +14427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>409</v>
       </c>
@@ -14189,7 +14471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>410</v>
       </c>
@@ -14233,7 +14515,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>411</v>
       </c>
@@ -14277,7 +14559,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>412</v>
       </c>
@@ -14321,7 +14603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>413</v>
       </c>
@@ -14365,7 +14647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>415</v>
       </c>
@@ -14409,7 +14691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>416</v>
       </c>
@@ -14453,7 +14735,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>417</v>
       </c>
@@ -14497,7 +14779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>418</v>
       </c>
@@ -14541,7 +14823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>419</v>
       </c>
@@ -14585,7 +14867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>420</v>
       </c>
@@ -14629,7 +14911,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>421</v>
       </c>
@@ -14673,7 +14955,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>422</v>
       </c>
@@ -14717,7 +14999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>423</v>
       </c>
@@ -14761,7 +15043,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>424</v>
       </c>
@@ -14805,7 +15087,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>425</v>
       </c>
@@ -14849,7 +15131,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>427</v>
       </c>
@@ -14893,7 +15175,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>428</v>
       </c>
@@ -14937,7 +15219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>429</v>
       </c>
@@ -14981,7 +15263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>430</v>
       </c>
@@ -15025,7 +15307,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>431</v>
       </c>
@@ -15069,7 +15351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>433</v>
       </c>
@@ -15113,7 +15395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>434</v>
       </c>
@@ -15157,7 +15439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>435</v>
       </c>
@@ -15201,7 +15483,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>436</v>
       </c>
@@ -15245,7 +15527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>437</v>
       </c>
@@ -15289,7 +15571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>438</v>
       </c>
@@ -15333,7 +15615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>440</v>
       </c>
@@ -15377,7 +15659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>441</v>
       </c>
@@ -15421,7 +15703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>442</v>
       </c>
@@ -15465,7 +15747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>443</v>
       </c>
@@ -15509,7 +15791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>444</v>
       </c>
@@ -15553,7 +15835,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>445</v>
       </c>
@@ -15597,7 +15879,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>446</v>
       </c>
@@ -15641,7 +15923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>447</v>
       </c>
@@ -15685,7 +15967,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>448</v>
       </c>
@@ -15729,7 +16011,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>449</v>
       </c>
@@ -15773,7 +16055,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>451</v>
       </c>
@@ -15817,7 +16099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>452</v>
       </c>
@@ -15861,7 +16143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>453</v>
       </c>
@@ -15905,7 +16187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>454</v>
       </c>
@@ -15949,7 +16231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>455</v>
       </c>
@@ -15993,7 +16275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>456</v>
       </c>
@@ -16037,7 +16319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>457</v>
       </c>
@@ -16081,7 +16363,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>458</v>
       </c>
@@ -16125,7 +16407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>459</v>
       </c>
@@ -16169,7 +16451,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>460</v>
       </c>
@@ -16213,7 +16495,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>461</v>
       </c>
@@ -16257,7 +16539,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>462</v>
       </c>
@@ -16301,7 +16583,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>463</v>
       </c>
@@ -16345,7 +16627,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>464</v>
       </c>
@@ -16389,7 +16671,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>467</v>
       </c>
@@ -16433,7 +16715,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>468</v>
       </c>
@@ -16477,7 +16759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>469</v>
       </c>
@@ -16521,7 +16803,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>470</v>
       </c>
@@ -16565,7 +16847,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>471</v>
       </c>
@@ -16609,7 +16891,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>473</v>
       </c>
@@ -16653,7 +16935,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>476</v>
       </c>
@@ -16697,7 +16979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>477</v>
       </c>
@@ -16741,7 +17023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>478</v>
       </c>
@@ -16785,7 +17067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>479</v>
       </c>
@@ -16829,7 +17111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>480</v>
       </c>
@@ -16873,7 +17155,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>481</v>
       </c>
@@ -16917,7 +17199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>482</v>
       </c>
@@ -16961,7 +17243,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>483</v>
       </c>
@@ -17005,7 +17287,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>484</v>
       </c>
@@ -17049,7 +17331,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>486</v>
       </c>
@@ -17093,7 +17375,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>489</v>
       </c>
@@ -17137,7 +17419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>490</v>
       </c>
@@ -17181,7 +17463,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>491</v>
       </c>
@@ -17225,7 +17507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>492</v>
       </c>
@@ -17269,7 +17551,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>493</v>
       </c>
@@ -17313,7 +17595,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>495</v>
       </c>
@@ -17357,7 +17639,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>496</v>
       </c>
@@ -17401,7 +17683,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>497</v>
       </c>
@@ -17445,7 +17727,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>498</v>
       </c>
@@ -17489,7 +17771,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>499</v>
       </c>
@@ -17533,7 +17815,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>500</v>
       </c>
@@ -17577,7 +17859,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>501</v>
       </c>
@@ -17621,7 +17903,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>502</v>
       </c>
@@ -17665,7 +17947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>503</v>
       </c>
@@ -17709,7 +17991,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>504</v>
       </c>
@@ -17753,643 +18035,644 @@
         <v>98</v>
       </c>
     </row>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="368" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
+  <sortState ref="A2:N367">
+    <sortCondition sortBy="cellColor" ref="F14"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>